--- a/testtask/result.xlsx
+++ b/testtask/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>result.xlsx</t>
+          <t>test.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>.xlsx</t>
+          <t>.txt</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test.txt</t>
+          <t>test2.rar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.txt</t>
+          <t>.rar</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>test2.rar</t>
+          <t>test3.dat.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>.rar</t>
+          <t>.txt</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>test3.dat.txt</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>.txt</t>
+          <t>undefined</t>
         </is>
       </c>
     </row>
@@ -596,12 +596,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>test4</t>
+          <t>.DS_Store</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask\test5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>test6.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask\test5</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask\test5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>.txt</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>test6.txt</t>
+          <t>.DS_Store</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask\test5</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask\test5\test7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>.txt</t>
+          <t>undefined</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>test8.dt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask\test5\test7</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask\test5\test7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>.dt</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>test8.dt</t>
+          <t>test10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask\test5\test7</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask\test5\test7\test10</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>.dt</t>
+          <t>undefined</t>
         </is>
       </c>
     </row>
@@ -696,35 +696,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>test10</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask\test5\test7\test10</t>
+          <t>C:\Users\batyr\OneDrive\Документы\GitHub\pythonTask\testtask\test5\test7\test10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C:\Users\batyr\Downloads\testtask\testtask\test5\test7\test10</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
